--- a/tabular/eve-side-data.xlsx
+++ b/tabular/eve-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32820" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1556,8 +1556,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1595,7 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1609,6 +1637,20 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1622,6 +1664,20 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1953,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/eve-side-data.xlsx
+++ b/tabular/eve-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32820" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="10200" yWindow="900" windowWidth="35080" windowHeight="24180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="474">
   <si>
     <t>assigned_gene</t>
   </si>
@@ -82,9 +82,6 @@
     <t>PVHN010004656.1</t>
   </si>
   <si>
-    <t>L_1_2_Cricetulus_griseus</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -97,39 +94,21 @@
     <t>Reston-ebolavirus</t>
   </si>
   <si>
-    <t>L_2_3_Ctenomys_sociabilis</t>
-  </si>
-  <si>
     <t>Ctenomys_sociabilis</t>
   </si>
   <si>
-    <t>PVKB01000771.1</t>
-  </si>
-  <si>
     <t>Lloviu-cuevavirus</t>
   </si>
   <si>
-    <t>L_11_4_Macropus_eugenii</t>
-  </si>
-  <si>
     <t>Macropus_eugenii</t>
   </si>
   <si>
-    <t>GL160078</t>
-  </si>
-  <si>
-    <t>L_1_5_Mesocricetus_auratus</t>
-  </si>
-  <si>
     <t>Mesocricetus_auratus</t>
   </si>
   <si>
     <t>gi|472278400|gb|KB708193.1|</t>
   </si>
   <si>
-    <t>L_4_6_Microtus_agrestis</t>
-  </si>
-  <si>
     <t>Microtus_agrestis</t>
   </si>
   <si>
@@ -151,33 +130,21 @@
     <t>Sudan-ebolavirus</t>
   </si>
   <si>
-    <t>L_3_9_Neotoma_lepida</t>
-  </si>
-  <si>
     <t>Neotoma_lepida</t>
   </si>
   <si>
     <t>LZPO01076085.1</t>
   </si>
   <si>
-    <t>L_12_10_Phascolarctos_cinereus</t>
-  </si>
-  <si>
     <t>Phascolarctos_cinereus</t>
   </si>
   <si>
     <t>phaCin_unsw_v4.1.fa.scaf00002</t>
   </si>
   <si>
-    <t>L_12_11_Phascolarctos_cinereus</t>
-  </si>
-  <si>
     <t>phaCin_unsw_v4.1.fa.scaf00044</t>
   </si>
   <si>
-    <t>L_1_12_Phodopus_sungorus</t>
-  </si>
-  <si>
     <t>Phodopus_sungorus</t>
   </si>
   <si>
@@ -1454,6 +1421,27 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>VP35_1_2_Cricetulus_griseus</t>
+  </si>
+  <si>
+    <t>VP35_1_5_Mesocricetus_auratus</t>
+  </si>
+  <si>
+    <t>VP35_4_6_Microtus_agrestis</t>
+  </si>
+  <si>
+    <t>VP35_3_9_Neotoma_lepida</t>
+  </si>
+  <si>
+    <t>VP35_12_10_Phascolarctos_cinereus</t>
+  </si>
+  <si>
+    <t>VP35_12_11_Phascolarctos_cinereus</t>
+  </si>
+  <si>
+    <t>VP35_1_12_Phodopus_sungorus</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +1544,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1623,7 +1617,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1651,6 +1645,9 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1678,6 +1675,9 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2007,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2019,11 +2019,12 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2035,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2056,24 +2057,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>13967</v>
@@ -2088,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <v>153</v>
@@ -2105,16 +2106,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>22424</v>
@@ -2129,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>155</v>
@@ -2146,16 +2147,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>12959</v>
@@ -2170,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>97</v>
@@ -2187,16 +2188,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>49065</v>
@@ -2211,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J5">
         <v>151</v>
@@ -2228,16 +2229,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>587367</v>
@@ -2252,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>255</v>
@@ -2269,16 +2270,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>2285</v>
@@ -2293,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>107</v>
@@ -2310,16 +2311,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>338920</v>
@@ -2334,7 +2335,7 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J8">
         <v>160</v>
@@ -2351,16 +2352,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>3986</v>
@@ -2375,7 +2376,7 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9">
         <v>150</v>
@@ -2392,16 +2393,16 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>16383</v>
@@ -2433,16 +2434,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>25569</v>
@@ -2457,7 +2458,7 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11">
         <v>226</v>
@@ -2474,16 +2475,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>96836</v>
@@ -2515,16 +2516,16 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>251142</v>
@@ -2539,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>186</v>
@@ -2556,16 +2557,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>51650</v>
@@ -2580,7 +2581,7 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J14">
         <v>139</v>
@@ -2597,16 +2598,16 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <v>14962</v>
@@ -2621,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>133</v>
@@ -2638,16 +2639,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>2146</v>
@@ -2662,7 +2663,7 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>186</v>
@@ -2679,16 +2680,16 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E17">
         <v>31482</v>
@@ -2703,7 +2704,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J17">
         <v>211</v>
@@ -2720,16 +2721,16 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>14553</v>
@@ -2744,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J18">
         <v>313</v>
@@ -2761,16 +2762,16 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E19">
         <v>13162</v>
@@ -2785,7 +2786,7 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J19">
         <v>150</v>
@@ -2802,16 +2803,16 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E20">
         <v>8266</v>
@@ -2826,7 +2827,7 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J20">
         <v>180</v>
@@ -2843,16 +2844,16 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>1034</v>
@@ -2867,7 +2868,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J21">
         <v>156</v>
@@ -2884,16 +2885,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>906267</v>
@@ -2925,16 +2926,16 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>8636741</v>
@@ -2966,16 +2967,16 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <v>6352594</v>
@@ -2990,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>228</v>
@@ -3007,16 +3008,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E25">
         <v>14192337</v>
@@ -3031,7 +3032,7 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J25">
         <v>263</v>
@@ -3048,16 +3049,16 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>18507010</v>
@@ -3072,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J26">
         <v>295</v>
@@ -3089,16 +3090,16 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>8164</v>
@@ -3113,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27">
         <v>148</v>
@@ -3130,16 +3131,16 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E28">
         <v>104574</v>
@@ -3154,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J28">
         <v>262</v>
@@ -3171,16 +3172,16 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E29">
         <v>96768</v>
@@ -3212,16 +3213,16 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E30">
         <v>360</v>
@@ -3236,7 +3237,7 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>231</v>
@@ -3253,16 +3254,16 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E31">
         <v>26005</v>
@@ -3277,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J31">
         <v>258</v>
@@ -3294,16 +3295,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E32">
         <v>20887</v>
@@ -3318,7 +3319,7 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J32">
         <v>250</v>
@@ -3335,16 +3336,16 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>8286</v>
@@ -3359,7 +3360,7 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J33">
         <v>181</v>
@@ -3376,16 +3377,16 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>8124</v>
@@ -3400,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34">
         <v>71</v>
@@ -3417,16 +3418,16 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E35">
         <v>32743</v>
@@ -3458,16 +3459,16 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>3801</v>
@@ -3499,16 +3500,16 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>6932</v>
@@ -3523,7 +3524,7 @@
         <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J37">
         <v>164</v>
@@ -3540,16 +3541,16 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E38">
         <v>5672</v>
@@ -3564,7 +3565,7 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <v>136</v>
@@ -3581,16 +3582,16 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E39">
         <v>10911</v>
@@ -3605,7 +3606,7 @@
         <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J39">
         <v>261</v>
@@ -3622,16 +3623,16 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E40">
         <v>880</v>
@@ -3646,7 +3647,7 @@
         <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J40">
         <v>60</v>
@@ -3663,16 +3664,16 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E41">
         <v>15666</v>
@@ -3687,7 +3688,7 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41">
         <v>197</v>
@@ -3704,16 +3705,16 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -3728,7 +3729,7 @@
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <v>22</v>
@@ -3745,16 +3746,16 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E43">
         <v>794288</v>
@@ -3769,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J43">
         <v>220</v>
@@ -3786,16 +3787,16 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E44">
         <v>13306618</v>
@@ -3810,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J44">
         <v>21</v>
@@ -3827,16 +3828,16 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E45">
         <v>16800563</v>
@@ -3851,7 +3852,7 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>272</v>
@@ -3868,16 +3869,16 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E46">
         <v>1385611</v>
@@ -3892,7 +3893,7 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J46">
         <v>131</v>
@@ -3909,16 +3910,16 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E47">
         <v>1682269</v>
@@ -3933,7 +3934,7 @@
         <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J47">
         <v>241</v>
@@ -3950,16 +3951,16 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E48">
         <v>687314</v>
@@ -3974,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J48">
         <v>280</v>
@@ -3991,16 +3992,16 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E49">
         <v>22393838</v>
@@ -4015,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J49">
         <v>155</v>
@@ -4032,16 +4033,16 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E50">
         <v>52306521</v>
@@ -4056,7 +4057,7 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J50">
         <v>151</v>
@@ -4073,16 +4074,16 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E51">
         <v>48412294</v>
@@ -4097,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>154</v>
@@ -4114,16 +4115,16 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E52">
         <v>27471226</v>
@@ -4138,7 +4139,7 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J52">
         <v>250</v>
@@ -4155,16 +4156,16 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E53">
         <v>54444145</v>
@@ -4179,7 +4180,7 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J53">
         <v>232</v>
@@ -4196,16 +4197,16 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E54">
         <v>15290</v>
@@ -4220,7 +4221,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J54">
         <v>57</v>
@@ -4237,16 +4238,16 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E55">
         <v>9090</v>
@@ -4278,16 +4279,16 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E56">
         <v>68</v>
@@ -4302,7 +4303,7 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J56">
         <v>220</v>
@@ -4319,16 +4320,16 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E57">
         <v>74147062</v>
@@ -4343,7 +4344,7 @@
         <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J57">
         <v>134</v>
@@ -4360,16 +4361,16 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E58">
         <v>73977360</v>
@@ -4384,7 +4385,7 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J58">
         <v>134</v>
@@ -4401,16 +4402,16 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E59">
         <v>68765586</v>
@@ -4442,16 +4443,16 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E60">
         <v>73746386</v>
@@ -4466,7 +4467,7 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J60">
         <v>134</v>
@@ -4483,16 +4484,16 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E61">
         <v>5896</v>
@@ -4507,7 +4508,7 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J61">
         <v>142</v>
@@ -4524,16 +4525,16 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E62">
         <v>82083</v>
@@ -4548,7 +4549,7 @@
         <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J62">
         <v>149</v>
@@ -4565,16 +4566,16 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E63">
         <v>295303</v>
@@ -4589,7 +4590,7 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J63">
         <v>160</v>
@@ -4606,16 +4607,16 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E64">
         <v>73900</v>
@@ -4647,16 +4648,16 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E65">
         <v>655538</v>
@@ -4671,7 +4672,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J65">
         <v>220</v>
@@ -4688,16 +4689,16 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E66">
         <v>190201</v>
@@ -4729,16 +4730,16 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E67">
         <v>268140</v>
@@ -4753,7 +4754,7 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J67">
         <v>155</v>
@@ -4770,16 +4771,16 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E68">
         <v>572408</v>
@@ -4794,7 +4795,7 @@
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J68">
         <v>264</v>
@@ -4811,16 +4812,16 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E69">
         <v>2645882</v>
@@ -4835,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J69">
         <v>146</v>
@@ -4852,16 +4853,16 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E70">
         <v>9623578</v>
@@ -4876,7 +4877,7 @@
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J70">
         <v>264</v>
@@ -4893,16 +4894,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E71">
         <v>8786938</v>
@@ -4934,16 +4935,16 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E72">
         <v>260875</v>
@@ -4958,7 +4959,7 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J72">
         <v>233</v>
@@ -4975,16 +4976,16 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E73">
         <v>3113</v>
@@ -5016,16 +5017,16 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E74">
         <v>2883</v>
@@ -5040,7 +5041,7 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J74">
         <v>182</v>
@@ -5057,16 +5058,16 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E75">
         <v>1002820</v>
@@ -5081,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J75">
         <v>159</v>
@@ -5098,16 +5099,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5139,16 +5140,16 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E77">
         <v>1918853</v>
@@ -5163,7 +5164,7 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J77">
         <v>274</v>
@@ -5180,16 +5181,16 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E78">
         <v>3581621</v>
@@ -5204,7 +5205,7 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78">
         <v>37</v>
@@ -5221,16 +5222,16 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B79" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E79">
         <v>28674</v>
@@ -5245,7 +5246,7 @@
         <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J79">
         <v>121</v>
@@ -5262,16 +5263,16 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E80">
         <v>8521</v>
@@ -5286,7 +5287,7 @@
         <v>16</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J80">
         <v>147</v>
@@ -5303,16 +5304,16 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E81">
         <v>41784</v>
@@ -5327,7 +5328,7 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J81">
         <v>147</v>
@@ -5344,16 +5345,16 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E82">
         <v>25343</v>
@@ -5368,7 +5369,7 @@
         <v>16</v>
       </c>
       <c r="I82" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J82">
         <v>175</v>
@@ -5385,16 +5386,16 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E83">
         <v>689346</v>
@@ -5409,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J83">
         <v>36</v>
@@ -5426,16 +5427,16 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E84">
         <v>44870</v>
@@ -5450,7 +5451,7 @@
         <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J84">
         <v>150</v>
@@ -5467,16 +5468,16 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B85" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C85" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E85">
         <v>102592</v>
@@ -5491,7 +5492,7 @@
         <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <v>197</v>
@@ -5508,16 +5509,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D86" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E86">
         <v>21069</v>
@@ -5532,7 +5533,7 @@
         <v>16</v>
       </c>
       <c r="I86" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J86">
         <v>142</v>
@@ -5549,16 +5550,16 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C87" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E87">
         <v>47624</v>
@@ -5590,16 +5591,16 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C88" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E88">
         <v>18152</v>
@@ -5614,7 +5615,7 @@
         <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J88">
         <v>81</v>
@@ -5631,16 +5632,16 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B89" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E89">
         <v>1876</v>
@@ -5655,7 +5656,7 @@
         <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J89">
         <v>147</v>
@@ -5672,16 +5673,16 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E90">
         <v>2601</v>
@@ -5696,7 +5697,7 @@
         <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>295</v>
@@ -5713,16 +5714,16 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B91" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E91">
         <v>452686</v>
@@ -5737,7 +5738,7 @@
         <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J91">
         <v>201</v>
@@ -5754,16 +5755,16 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B92" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E92">
         <v>4585405</v>
@@ -5778,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J92">
         <v>147</v>
@@ -5795,16 +5796,16 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B93" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C93" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E93">
         <v>4192105</v>
@@ -5819,7 +5820,7 @@
         <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>56</v>
@@ -5836,16 +5837,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B94" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E94">
         <v>8889128</v>
@@ -5860,7 +5861,7 @@
         <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J94">
         <v>234</v>
@@ -5877,16 +5878,16 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E95">
         <v>7971797</v>
@@ -5901,7 +5902,7 @@
         <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>188</v>
@@ -5918,16 +5919,16 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E96">
         <v>65129156</v>
@@ -5942,7 +5943,7 @@
         <v>16</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J96">
         <v>155</v>
@@ -5959,16 +5960,16 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C97" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D97" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E97">
         <v>56058302</v>
@@ -5983,7 +5984,7 @@
         <v>16</v>
       </c>
       <c r="I97" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J97">
         <v>234</v>
@@ -6000,16 +6001,16 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C98" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E98">
         <v>75730290</v>
@@ -6024,7 +6025,7 @@
         <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J98">
         <v>56</v>
@@ -6041,16 +6042,16 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B99" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E99">
         <v>12680367</v>
@@ -6065,7 +6066,7 @@
         <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J99">
         <v>36</v>
@@ -6082,16 +6083,16 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B100" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C100" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E100">
         <v>11751089</v>
@@ -6106,7 +6107,7 @@
         <v>16</v>
       </c>
       <c r="I100" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J100">
         <v>143</v>
@@ -6123,16 +6124,16 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="5" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B101" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E101">
         <v>31897474</v>
@@ -6147,7 +6148,7 @@
         <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J101">
         <v>22</v>
@@ -6164,16 +6165,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B102" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E102">
         <v>32968340</v>
@@ -6205,16 +6206,16 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="5" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B103" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E103">
         <v>10976892</v>
@@ -6229,7 +6230,7 @@
         <v>16</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J103">
         <v>22</v>
@@ -6246,16 +6247,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E104">
         <v>1846740</v>
@@ -6270,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J104">
         <v>22</v>
@@ -6287,16 +6288,16 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B105" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E105">
         <v>2637669</v>
@@ -6311,7 +6312,7 @@
         <v>16</v>
       </c>
       <c r="I105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J105">
         <v>188</v>
@@ -6328,16 +6329,16 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B106" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E106">
         <v>2022528</v>
@@ -6352,7 +6353,7 @@
         <v>16</v>
       </c>
       <c r="I106" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J106">
         <v>261</v>
@@ -6369,16 +6370,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="5" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B107" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E107">
         <v>3533521</v>
@@ -6393,7 +6394,7 @@
         <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J107">
         <v>204</v>
@@ -6410,16 +6411,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B108" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E108">
         <v>1453656</v>
@@ -6434,7 +6435,7 @@
         <v>10</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J108">
         <v>27</v>
@@ -6451,16 +6452,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B109" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E109">
         <v>1028286</v>
@@ -6475,7 +6476,7 @@
         <v>16</v>
       </c>
       <c r="I109" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J109">
         <v>159</v>
@@ -6492,16 +6493,16 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E110">
         <v>1458</v>
@@ -6516,7 +6517,7 @@
         <v>16</v>
       </c>
       <c r="I110" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J110">
         <v>248</v>
@@ -6533,16 +6534,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B111" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E111">
         <v>2126</v>
@@ -6557,7 +6558,7 @@
         <v>16</v>
       </c>
       <c r="I111" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J111">
         <v>170</v>
@@ -6574,16 +6575,16 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B112" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E112">
         <v>2291</v>
@@ -6598,7 +6599,7 @@
         <v>16</v>
       </c>
       <c r="I112" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J112">
         <v>117</v>
@@ -6615,16 +6616,16 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="5" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B113" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C113" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D113" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E113">
         <v>56826</v>
@@ -6639,7 +6640,7 @@
         <v>10</v>
       </c>
       <c r="I113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J113">
         <v>231</v>
@@ -6656,16 +6657,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B114" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C114" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D114" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E114">
         <v>1829</v>
@@ -6680,7 +6681,7 @@
         <v>10</v>
       </c>
       <c r="I114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J114">
         <v>39</v>
@@ -6697,16 +6698,16 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E115">
         <v>2974</v>
@@ -6721,7 +6722,7 @@
         <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J115">
         <v>208</v>
@@ -6738,16 +6739,16 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C116" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D116" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E116">
         <v>141291</v>
@@ -6762,7 +6763,7 @@
         <v>10</v>
       </c>
       <c r="I116" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J116">
         <v>200</v>
@@ -6779,16 +6780,16 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D117" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E117">
         <v>86023</v>
@@ -6803,7 +6804,7 @@
         <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J117">
         <v>151</v>
@@ -6820,16 +6821,16 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="5" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B118" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C118" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E118">
         <v>47806</v>
@@ -6844,7 +6845,7 @@
         <v>10</v>
       </c>
       <c r="I118" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J118">
         <v>173</v>
@@ -6861,16 +6862,16 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="5" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E119">
         <v>8207</v>
@@ -6885,7 +6886,7 @@
         <v>16</v>
       </c>
       <c r="I119" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J119">
         <v>279</v>
@@ -6902,16 +6903,16 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C120" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D120" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E120">
         <v>713199</v>
@@ -6926,7 +6927,7 @@
         <v>16</v>
       </c>
       <c r="I120" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J120">
         <v>53</v>
@@ -6943,16 +6944,16 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="5" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B121" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D121" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E121">
         <v>4431668</v>
@@ -6967,7 +6968,7 @@
         <v>10</v>
       </c>
       <c r="I121" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J121">
         <v>188</v>
@@ -6984,16 +6985,16 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B122" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C122" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E122">
         <v>5726</v>
@@ -7008,7 +7009,7 @@
         <v>10</v>
       </c>
       <c r="I122" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J122">
         <v>253</v>
@@ -7025,16 +7026,16 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B123" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D123" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E123">
         <v>2125873</v>
@@ -7049,7 +7050,7 @@
         <v>16</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J123">
         <v>230</v>
@@ -7066,16 +7067,16 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B124" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C124" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D124" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E124">
         <v>9641086</v>
@@ -7107,16 +7108,16 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B125" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C125" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D125" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E125">
         <v>19406019</v>
@@ -7131,7 +7132,7 @@
         <v>10</v>
       </c>
       <c r="I125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J125">
         <v>292</v>
@@ -7148,16 +7149,16 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B126" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C126" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D126" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E126">
         <v>7354486</v>
@@ -7172,7 +7173,7 @@
         <v>10</v>
       </c>
       <c r="I126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J126">
         <v>148</v>
@@ -7189,16 +7190,16 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="5" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B127" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D127" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E127">
         <v>5640946</v>
@@ -7213,7 +7214,7 @@
         <v>10</v>
       </c>
       <c r="I127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J127">
         <v>159</v>
@@ -7230,16 +7231,16 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B128" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C128" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D128" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E128">
         <v>36860027</v>
@@ -7271,16 +7272,16 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="5" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B129" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C129" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D129" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E129">
         <v>24491091</v>
@@ -7295,7 +7296,7 @@
         <v>16</v>
       </c>
       <c r="I129" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J129">
         <v>248</v>
@@ -7312,16 +7313,16 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="5" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C130" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D130" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E130">
         <v>19838625</v>
@@ -7336,7 +7337,7 @@
         <v>16</v>
       </c>
       <c r="I130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J130">
         <v>149</v>
@@ -7353,16 +7354,16 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B131" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C131" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D131" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E131">
         <v>4446293</v>
@@ -7377,7 +7378,7 @@
         <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J131">
         <v>164</v>
@@ -7394,16 +7395,16 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B132" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C132" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D132" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E132">
         <v>63342</v>
@@ -7418,7 +7419,7 @@
         <v>16</v>
       </c>
       <c r="I132" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J132">
         <v>136</v>
@@ -7435,16 +7436,16 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="6" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E133">
         <v>521</v>
@@ -7459,7 +7460,7 @@
         <v>10</v>
       </c>
       <c r="I133" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J133">
         <v>47</v>
@@ -7476,16 +7477,16 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C134" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D134" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E134">
         <v>2286</v>
@@ -7517,16 +7518,16 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="6" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B135" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E135">
         <v>1235078</v>
@@ -7558,16 +7559,16 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="6" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B136" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E136">
         <v>581</v>
@@ -7599,16 +7600,16 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="6" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B137" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E137">
         <v>46004640</v>
@@ -7640,16 +7641,16 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="6" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B138" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" t="s">
         <v>348</v>
-      </c>
-      <c r="C138" t="s">
-        <v>190</v>
-      </c>
-      <c r="D138" t="s">
-        <v>359</v>
       </c>
       <c r="E138">
         <v>16757</v>
@@ -7664,7 +7665,7 @@
         <v>16</v>
       </c>
       <c r="I138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J138">
         <v>171</v>
@@ -7681,16 +7682,16 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="6" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E139">
         <v>5977</v>
@@ -7722,16 +7723,16 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C140" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D140" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E140">
         <v>80182</v>
@@ -7746,7 +7747,7 @@
         <v>10</v>
       </c>
       <c r="I140" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J140">
         <v>14</v>
@@ -7763,16 +7764,16 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C141" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E141">
         <v>49277</v>
@@ -7787,7 +7788,7 @@
         <v>16</v>
       </c>
       <c r="I141" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J141">
         <v>12</v>
@@ -7804,16 +7805,16 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B142" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C142" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E142">
         <v>568</v>
@@ -7828,7 +7829,7 @@
         <v>10</v>
       </c>
       <c r="I142" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J142">
         <v>78</v>
@@ -7845,16 +7846,16 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B143" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D143" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E143">
         <v>244950</v>
@@ -7869,7 +7870,7 @@
         <v>16</v>
       </c>
       <c r="I143" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J143">
         <v>193</v>
@@ -7886,16 +7887,16 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C144" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E144">
         <v>23779547</v>
@@ -7910,7 +7911,7 @@
         <v>10</v>
       </c>
       <c r="I144" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J144">
         <v>56</v>
@@ -7927,16 +7928,16 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B145" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E145">
         <v>1055297</v>
@@ -7951,7 +7952,7 @@
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J145">
         <v>217</v>
@@ -7968,16 +7969,16 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B146" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E146">
         <v>207661</v>
@@ -7992,7 +7993,7 @@
         <v>16</v>
       </c>
       <c r="I146" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J146">
         <v>101</v>
@@ -8009,16 +8010,16 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B147" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E147">
         <v>1644928</v>
@@ -8033,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J147">
         <v>219</v>
@@ -8050,16 +8051,16 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B148" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E148">
         <v>590656</v>
@@ -8074,7 +8075,7 @@
         <v>10</v>
       </c>
       <c r="I148" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J148">
         <v>227</v>
@@ -8091,16 +8092,16 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B149" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C149" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D149" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E149">
         <v>49777</v>
@@ -8115,7 +8116,7 @@
         <v>10</v>
       </c>
       <c r="I149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J149">
         <v>142</v>
@@ -8132,16 +8133,16 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B150" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C150" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D150" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E150">
         <v>140507</v>
@@ -8156,7 +8157,7 @@
         <v>10</v>
       </c>
       <c r="I150" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J150">
         <v>37</v>
@@ -8173,16 +8174,16 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C151" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D151" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E151">
         <v>223190</v>
@@ -8197,7 +8198,7 @@
         <v>16</v>
       </c>
       <c r="I151" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J151">
         <v>30</v>
@@ -8214,16 +8215,16 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B152" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C152" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D152" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E152">
         <v>329427</v>
@@ -8238,7 +8239,7 @@
         <v>10</v>
       </c>
       <c r="I152" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J152">
         <v>60</v>
@@ -8255,16 +8256,16 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B153" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C153" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D153" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E153">
         <v>56833</v>
@@ -8279,7 +8280,7 @@
         <v>10</v>
       </c>
       <c r="I153" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J153">
         <v>83</v>
@@ -8296,16 +8297,16 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B154" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C154" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D154" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E154">
         <v>23362</v>
@@ -8320,7 +8321,7 @@
         <v>16</v>
       </c>
       <c r="I154" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J154">
         <v>30</v>
@@ -8337,16 +8338,16 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C155" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E155">
         <v>14065</v>
@@ -8361,7 +8362,7 @@
         <v>16</v>
       </c>
       <c r="I155" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J155">
         <v>213</v>
@@ -8378,16 +8379,16 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B156" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C156" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D156" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E156">
         <v>5792</v>
@@ -8402,7 +8403,7 @@
         <v>16</v>
       </c>
       <c r="I156" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J156">
         <v>60</v>
@@ -8419,16 +8420,16 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B157" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E157">
         <v>34187</v>
@@ -8460,16 +8461,16 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B158" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C158" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E158">
         <v>1976642</v>
@@ -8484,7 +8485,7 @@
         <v>10</v>
       </c>
       <c r="I158" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J158">
         <v>95</v>
@@ -8501,16 +8502,16 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B159" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C159" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D159" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E159">
         <v>66017</v>
@@ -8525,7 +8526,7 @@
         <v>10</v>
       </c>
       <c r="I159" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J159">
         <v>158</v>
@@ -8542,16 +8543,16 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E160">
         <v>779626</v>
@@ -8566,7 +8567,7 @@
         <v>16</v>
       </c>
       <c r="I160" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J160">
         <v>140</v>
@@ -8583,16 +8584,16 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B161" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E161">
         <v>260388</v>
@@ -8607,7 +8608,7 @@
         <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J161">
         <v>31</v>
@@ -8624,16 +8625,16 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B162" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E162">
         <v>26305160</v>
@@ -8648,7 +8649,7 @@
         <v>10</v>
       </c>
       <c r="I162" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J162">
         <v>56</v>
@@ -8665,16 +8666,16 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B163" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E163">
         <v>1575407</v>
@@ -8689,7 +8690,7 @@
         <v>16</v>
       </c>
       <c r="I163" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J163">
         <v>50</v>
@@ -8706,16 +8707,16 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B164" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D164" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E164">
         <v>1681851</v>
@@ -8730,7 +8731,7 @@
         <v>16</v>
       </c>
       <c r="I164" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J164">
         <v>44</v>
@@ -8747,16 +8748,16 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B165" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D165" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E165">
         <v>805240</v>
@@ -8771,7 +8772,7 @@
         <v>16</v>
       </c>
       <c r="I165" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J165">
         <v>142</v>
@@ -8788,16 +8789,16 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B166" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D166" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E166">
         <v>22396005</v>
@@ -8812,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="I166" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J166">
         <v>60</v>
@@ -8829,16 +8830,16 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B167" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D167" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E167">
         <v>55328711</v>
@@ -8853,7 +8854,7 @@
         <v>16</v>
       </c>
       <c r="I167" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J167">
         <v>50</v>
@@ -8870,16 +8871,16 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B168" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C168" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D168" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E168">
         <v>42768457</v>
@@ -8894,7 +8895,7 @@
         <v>10</v>
       </c>
       <c r="I168" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J168">
         <v>142</v>
@@ -8911,16 +8912,16 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B169" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C169" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D169" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E169">
         <v>37672558</v>
@@ -8935,7 +8936,7 @@
         <v>16</v>
       </c>
       <c r="I169" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J169">
         <v>37</v>
@@ -8952,16 +8953,16 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B170" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C170" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D170" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E170">
         <v>58096795</v>
@@ -8976,7 +8977,7 @@
         <v>10</v>
       </c>
       <c r="I170" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J170">
         <v>30</v>
@@ -8993,16 +8994,16 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B171" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D171" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E171">
         <v>43214</v>
@@ -9017,7 +9018,7 @@
         <v>10</v>
       </c>
       <c r="I171" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J171">
         <v>97</v>
@@ -9034,16 +9035,16 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B172" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D172" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E172">
         <v>19052705</v>
@@ -9058,7 +9059,7 @@
         <v>10</v>
       </c>
       <c r="I172" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J172">
         <v>92</v>
@@ -9075,16 +9076,16 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B173" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C173" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D173" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E173">
         <v>22129194</v>
@@ -9099,7 +9100,7 @@
         <v>10</v>
       </c>
       <c r="I173" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J173">
         <v>193</v>
@@ -9116,16 +9117,16 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B174" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C174" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D174" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E174">
         <v>8225159</v>
@@ -9140,7 +9141,7 @@
         <v>16</v>
       </c>
       <c r="I174" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J174">
         <v>105</v>
@@ -9157,16 +9158,16 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B175" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C175" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D175" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E175">
         <v>18883651</v>
@@ -9181,7 +9182,7 @@
         <v>10</v>
       </c>
       <c r="I175" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J175">
         <v>92</v>
@@ -9198,16 +9199,16 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B176" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C176" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D176" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="E176">
         <v>1958791</v>
@@ -9222,7 +9223,7 @@
         <v>16</v>
       </c>
       <c r="I176" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J176">
         <v>237</v>
@@ -9239,16 +9240,16 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B177" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D177" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E177">
         <v>1569601</v>
@@ -9263,7 +9264,7 @@
         <v>10</v>
       </c>
       <c r="I177" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -9280,16 +9281,16 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B178" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D178" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E178">
         <v>4685275</v>
@@ -9304,7 +9305,7 @@
         <v>10</v>
       </c>
       <c r="I178" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J178">
         <v>1</v>
@@ -9321,16 +9322,16 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B179" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C179" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D179" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E179">
         <v>12238305</v>
@@ -9345,7 +9346,7 @@
         <v>10</v>
       </c>
       <c r="I179" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -9362,16 +9363,16 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B180" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C180" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D180" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E180">
         <v>414275</v>
@@ -9386,7 +9387,7 @@
         <v>10</v>
       </c>
       <c r="I180" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J180">
         <v>183</v>
@@ -9403,16 +9404,16 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B181" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C181" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D181" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E181">
         <v>644</v>
@@ -9427,7 +9428,7 @@
         <v>10</v>
       </c>
       <c r="I181" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J181">
         <v>43</v>
@@ -9444,16 +9445,16 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C182" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D182" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E182">
         <v>87861</v>
@@ -9468,7 +9469,7 @@
         <v>10</v>
       </c>
       <c r="I182" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>200</v>
@@ -9485,16 +9486,16 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C183" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D183" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E183">
         <v>313542</v>
@@ -9509,7 +9510,7 @@
         <v>10</v>
       </c>
       <c r="I183" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J183">
         <v>195</v>
@@ -9526,16 +9527,16 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D184" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E184">
         <v>7968384</v>
@@ -9567,16 +9568,16 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B185" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C185" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D185" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E185">
         <v>1822604</v>
@@ -9591,7 +9592,7 @@
         <v>16</v>
       </c>
       <c r="I185" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J185">
         <v>215</v>
@@ -9608,16 +9609,16 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B186" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C186" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D186" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E186">
         <v>29</v>
@@ -9632,7 +9633,7 @@
         <v>16</v>
       </c>
       <c r="I186" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J186">
         <v>198</v>
@@ -9649,16 +9650,16 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B187" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C187" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D187" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E187">
         <v>31592</v>
@@ -9673,7 +9674,7 @@
         <v>10</v>
       </c>
       <c r="I187" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J187">
         <v>8</v>
@@ -9690,16 +9691,16 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B188" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C188" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D188" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E188">
         <v>51723</v>
@@ -9714,7 +9715,7 @@
         <v>10</v>
       </c>
       <c r="I188" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J188">
         <v>64</v>
@@ -9731,16 +9732,16 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B189" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C189" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D189" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E189">
         <v>237572</v>
@@ -9755,7 +9756,7 @@
         <v>10</v>
       </c>
       <c r="I189" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J189">
         <v>28</v>
@@ -9772,16 +9773,16 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B190" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C190" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D190" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E190">
         <v>36369303</v>
@@ -9796,7 +9797,7 @@
         <v>10</v>
       </c>
       <c r="I190" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J190">
         <v>219</v>
@@ -9813,16 +9814,16 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B191" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C191" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D191" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E191">
         <v>89434652</v>
@@ -9837,7 +9838,7 @@
         <v>10</v>
       </c>
       <c r="I191" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J191">
         <v>96</v>
@@ -9854,16 +9855,16 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B192" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C192" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D192" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E192">
         <v>86724</v>
@@ -9878,7 +9879,7 @@
         <v>16</v>
       </c>
       <c r="I192" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J192">
         <v>79</v>
@@ -9891,6 +9892,293 @@
       </c>
       <c r="M192">
         <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B193" t="s">
+        <v>352</v>
+      </c>
+      <c r="C193" t="s">
+        <v>36</v>
+      </c>
+      <c r="D193" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193">
+        <v>36391</v>
+      </c>
+      <c r="F193">
+        <v>37087</v>
+      </c>
+      <c r="G193">
+        <v>697</v>
+      </c>
+      <c r="H193" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" t="s">
+        <v>23</v>
+      </c>
+      <c r="J193">
+        <v>92</v>
+      </c>
+      <c r="K193">
+        <v>222</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B194" t="s">
+        <v>352</v>
+      </c>
+      <c r="C194" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" t="s">
+        <v>39</v>
+      </c>
+      <c r="E194">
+        <v>31890409</v>
+      </c>
+      <c r="F194">
+        <v>31890720</v>
+      </c>
+      <c r="G194">
+        <v>312</v>
+      </c>
+      <c r="H194" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" t="s">
+        <v>23</v>
+      </c>
+      <c r="J194">
+        <v>192</v>
+      </c>
+      <c r="K194">
+        <v>275</v>
+      </c>
+      <c r="L194">
+        <v>12</v>
+      </c>
+      <c r="M194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B195" t="s">
+        <v>352</v>
+      </c>
+      <c r="C195" t="s">
+        <v>38</v>
+      </c>
+      <c r="D195" t="s">
+        <v>40</v>
+      </c>
+      <c r="E195">
+        <v>2489279</v>
+      </c>
+      <c r="F195">
+        <v>2489812</v>
+      </c>
+      <c r="G195">
+        <v>534</v>
+      </c>
+      <c r="H195" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" t="s">
+        <v>23</v>
+      </c>
+      <c r="J195">
+        <v>125</v>
+      </c>
+      <c r="K195">
+        <v>240</v>
+      </c>
+      <c r="L195">
+        <v>12</v>
+      </c>
+      <c r="M195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B196" t="s">
+        <v>352</v>
+      </c>
+      <c r="C196" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" t="s">
+        <v>42</v>
+      </c>
+      <c r="E196">
+        <v>2981</v>
+      </c>
+      <c r="F196">
+        <v>3594</v>
+      </c>
+      <c r="G196">
+        <v>614</v>
+      </c>
+      <c r="H196" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" t="s">
+        <v>23</v>
+      </c>
+      <c r="J196">
+        <v>94</v>
+      </c>
+      <c r="K196">
+        <v>185</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B197" t="s">
+        <v>352</v>
+      </c>
+      <c r="C197" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>628441</v>
+      </c>
+      <c r="F197">
+        <v>628928</v>
+      </c>
+      <c r="G197">
+        <v>488</v>
+      </c>
+      <c r="H197" t="s">
+        <v>10</v>
+      </c>
+      <c r="I197" t="s">
+        <v>23</v>
+      </c>
+      <c r="J197">
+        <v>159</v>
+      </c>
+      <c r="K197">
+        <v>279</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B198" t="s">
+        <v>352</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198">
+        <v>3324650</v>
+      </c>
+      <c r="F198">
+        <v>3325141</v>
+      </c>
+      <c r="G198">
+        <v>492</v>
+      </c>
+      <c r="H198" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" t="s">
+        <v>23</v>
+      </c>
+      <c r="J198">
+        <v>108</v>
+      </c>
+      <c r="K198">
+        <v>289</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B199" t="s">
+        <v>352</v>
+      </c>
+      <c r="C199" t="s">
+        <v>29</v>
+      </c>
+      <c r="D199" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199">
+        <v>524071</v>
+      </c>
+      <c r="F199">
+        <v>524334</v>
+      </c>
+      <c r="G199">
+        <v>264</v>
+      </c>
+      <c r="H199" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" t="s">
+        <v>23</v>
+      </c>
+      <c r="J199">
+        <v>226</v>
+      </c>
+      <c r="K199">
+        <v>315</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9906,20 +10194,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD15"/>
+      <selection activeCell="A12" sqref="A12:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -9960,7 +10251,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -10001,7 +10292,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -10042,7 +10333,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -10078,223 +10369,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>628441</v>
-      </c>
-      <c r="F5">
-        <v>628928</v>
-      </c>
-      <c r="G5">
-        <v>488</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>159</v>
-      </c>
-      <c r="K5">
-        <v>279</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>561579</v>
-      </c>
-      <c r="F6">
-        <v>564815</v>
-      </c>
-      <c r="G6">
-        <v>3237</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6">
-        <v>1084</v>
-      </c>
-      <c r="K6">
-        <v>1360</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>221</v>
-      </c>
-      <c r="G7">
-        <v>210</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>231</v>
-      </c>
-      <c r="K7">
-        <v>300</v>
-      </c>
-      <c r="L7">
-        <v>11</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>3324650</v>
-      </c>
-      <c r="F8">
-        <v>3325141</v>
-      </c>
-      <c r="G8">
-        <v>492</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>108</v>
-      </c>
-      <c r="K8">
-        <v>289</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>524071</v>
-      </c>
-      <c r="F9">
-        <v>524334</v>
-      </c>
-      <c r="G9">
-        <v>264</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9">
-        <v>226</v>
-      </c>
-      <c r="K9">
-        <v>315</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-    </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>99732173</v>
@@ -10309,7 +10395,7 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>1258</v>
@@ -10326,16 +10412,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>99733900</v>
@@ -10350,7 +10436,7 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>804</v>
@@ -10365,172 +10451,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12">
-        <v>36391</v>
-      </c>
-      <c r="F12">
-        <v>37087</v>
-      </c>
-      <c r="G12">
-        <v>697</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12">
-        <v>92</v>
-      </c>
-      <c r="K12">
-        <v>222</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>31890409</v>
-      </c>
-      <c r="F13">
-        <v>31890720</v>
-      </c>
-      <c r="G13">
-        <v>312</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13">
-        <v>192</v>
-      </c>
-      <c r="K13">
-        <v>275</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>2489279</v>
-      </c>
-      <c r="F14">
-        <v>2489812</v>
-      </c>
-      <c r="G14">
-        <v>534</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14">
-        <v>125</v>
-      </c>
-      <c r="K14">
-        <v>240</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15">
-        <v>2981</v>
-      </c>
-      <c r="F15">
-        <v>3594</v>
-      </c>
-      <c r="G15">
-        <v>614</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>94</v>
-      </c>
-      <c r="K15">
-        <v>185</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
